--- a/evals/최종평가_기말.xlsx
+++ b/evals/최종평가_기말.xlsx
@@ -465,13 +465,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>17.26388888888889</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>30.26388888888889</v>
       </c>
     </row>
     <row r="3">
@@ -484,13 +484,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>16.75</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>31.75</v>
       </c>
     </row>
     <row r="4">
@@ -503,13 +503,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>12.25</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>16.59722222222222</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>28.84722222222222</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>17.06944444444444</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>33.06944444444444</v>
       </c>
     </row>
     <row r="6">
@@ -541,13 +541,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>17.40277777777778</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>26.90277777777778</v>
       </c>
     </row>
     <row r="7">
@@ -560,13 +560,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>19.66666666666667</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>17.40277777777778</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>37.06944444444444</v>
       </c>
     </row>
     <row r="8">
@@ -579,13 +579,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>16.25</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>16.75</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>17.33333333333333</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>30.83333333333333</v>
       </c>
     </row>
     <row r="10">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>15.66666666666667</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>17.33333333333333</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>17.22222222222222</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>33.88888888888889</v>
       </c>
     </row>
     <row r="12">
@@ -655,13 +655,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>13.75</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>16.59722222222222</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>30.34722222222222</v>
       </c>
     </row>
     <row r="13">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>13.75</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>17.63888888888889</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>31.38888888888889</v>
       </c>
     </row>
     <row r="14">
@@ -693,13 +693,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>17.19444444444444</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>30.19444444444444</v>
       </c>
     </row>
     <row r="15">
@@ -712,13 +712,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>17.06944444444444</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>36.06944444444444</v>
       </c>
     </row>
     <row r="16">
@@ -731,13 +731,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>15.33333333333333</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>16.44444444444444</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>31.77777777777778</v>
       </c>
     </row>
     <row r="17">
@@ -750,13 +750,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>17.08333333333333</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>30.08333333333333</v>
       </c>
     </row>
     <row r="18">
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>18.33333333333333</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>17.40277777777778</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>35.73611111111111</v>
       </c>
     </row>
     <row r="19">
@@ -788,13 +788,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>16.44444444444444</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>32.44444444444444</v>
       </c>
     </row>
     <row r="20">
@@ -807,13 +807,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>19.33333333333333</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>17.31944444444444</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>36.65277777777777</v>
       </c>
     </row>
     <row r="21">
@@ -845,13 +845,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>17.25</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>16.72222222222222</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>33.97222222222222</v>
       </c>
     </row>
     <row r="23">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>16.94444444444444</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>30.94444444444444</v>
       </c>
     </row>
     <row r="24">
@@ -883,13 +883,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>17.22222222222222</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>36.22222222222222</v>
       </c>
     </row>
     <row r="25">
@@ -902,13 +902,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>17.26388888888889</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>33.93055555555556</v>
       </c>
     </row>
     <row r="26">
@@ -921,13 +921,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>16.25</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>17.01388888888889</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>33.26388888888889</v>
       </c>
     </row>
     <row r="27">
@@ -940,13 +940,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>17.06944444444444</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>32.56944444444444</v>
       </c>
     </row>
     <row r="28">
@@ -959,13 +959,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>17.18055555555556</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>30.68055555555556</v>
       </c>
     </row>
     <row r="29">
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>16.44444444444444</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>33.94444444444444</v>
       </c>
     </row>
     <row r="30">
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>17.08333333333333</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>33.58333333333333</v>
       </c>
     </row>
     <row r="31">
@@ -1016,13 +1016,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>15.25</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>16.59722222222222</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>31.84722222222222</v>
       </c>
     </row>
     <row r="32">
@@ -1035,13 +1035,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>17.01388888888889</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>31.51388888888889</v>
       </c>
     </row>
     <row r="33">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>17.40277777777778</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>19.40277777777778</v>
       </c>
     </row>
     <row r="34">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>16.44444444444444</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>36.44444444444444</v>
       </c>
     </row>
     <row r="35">
@@ -1092,13 +1092,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>17.22222222222222</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>34.22222222222222</v>
       </c>
     </row>
     <row r="36">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>18.75</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>17.63888888888889</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>36.38888888888889</v>
       </c>
     </row>
     <row r="37">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>14.66666666666667</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>17.40277777777778</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>32.06944444444444</v>
       </c>
     </row>
     <row r="38">
@@ -1168,13 +1168,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>19.66666666666667</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>17.31944444444444</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>36.98611111111111</v>
       </c>
     </row>
     <row r="40">
@@ -1187,13 +1187,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>16.75</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>29.25</v>
       </c>
     </row>
     <row r="41">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>13.75</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>16.59722222222222</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>30.34722222222222</v>
       </c>
     </row>
     <row r="42">
@@ -1225,13 +1225,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>17.01388888888889</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>33.01388888888889</v>
       </c>
     </row>
     <row r="43">
@@ -1244,13 +1244,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>18.66666666666667</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>17.31944444444444</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>35.98611111111111</v>
       </c>
     </row>
     <row r="44">
@@ -1263,13 +1263,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>16.72222222222222</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>31.22222222222222</v>
       </c>
     </row>
     <row r="45">
@@ -1301,13 +1301,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>17.19444444444444</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>27.19444444444444</v>
       </c>
     </row>
     <row r="47">
@@ -1320,13 +1320,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>17.01388888888889</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>32.01388888888889</v>
       </c>
     </row>
     <row r="48">
@@ -1339,13 +1339,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>16.94444444444444</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>27.34444444444444</v>
       </c>
     </row>
     <row r="49">
@@ -1358,13 +1358,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>13.75</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>17.63888888888889</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>31.38888888888889</v>
       </c>
     </row>
     <row r="50">
@@ -1377,13 +1377,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>17.18055555555556</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>30.18055555555556</v>
       </c>
     </row>
     <row r="51">
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>17.26388888888889</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>33.26388888888889</v>
       </c>
     </row>
     <row r="52">
@@ -1415,13 +1415,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>16.94444444444444</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>32.94444444444444</v>
       </c>
     </row>
     <row r="53">
@@ -1434,13 +1434,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>17.31944444444444</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>28.31944444444444</v>
       </c>
     </row>
     <row r="54">
@@ -1453,13 +1453,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>17.66666666666667</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>16.72222222222222</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>34.38888888888889</v>
       </c>
     </row>
     <row r="55">
@@ -1472,13 +1472,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>19.33333333333333</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>17.18055555555556</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>36.51388888888889</v>
       </c>
     </row>
     <row r="56">
@@ -1491,13 +1491,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>16.75</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="57">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>14.25</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>16.72222222222222</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>30.97222222222222</v>
       </c>
     </row>
     <row r="58">
@@ -1529,13 +1529,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>18.25</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>16.72222222222222</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>34.97222222222222</v>
       </c>
     </row>
     <row r="59">
@@ -1551,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>17.06944444444444</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>17.06944444444444</v>
       </c>
     </row>
     <row r="60">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>16.25</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>17.22222222222222</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>33.47222222222222</v>
       </c>
     </row>
     <row r="61">
@@ -1605,13 +1605,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>19.8</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>17.31944444444444</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>37.11944444444444</v>
       </c>
     </row>
     <row r="63">
@@ -1624,13 +1624,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>17.19444444444444</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>34.69444444444444</v>
       </c>
     </row>
     <row r="64">
@@ -1643,13 +1643,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>15.25</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>17.63888888888889</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>32.88888888888889</v>
       </c>
     </row>
     <row r="65">
@@ -1662,13 +1662,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>16.59722222222222</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>30.09722222222222</v>
       </c>
     </row>
     <row r="66">
@@ -1681,13 +1681,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>14.66666666666667</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>17.18055555555556</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>31.84722222222222</v>
       </c>
     </row>
     <row r="67">
@@ -1719,13 +1719,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>18.33333333333333</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>16.44444444444444</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>34.77777777777777</v>
       </c>
     </row>
     <row r="69">
@@ -1738,13 +1738,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>17.25</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>17.31944444444444</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>34.56944444444444</v>
       </c>
     </row>
     <row r="70">
@@ -1757,13 +1757,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>17.26388888888889</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>34.26388888888889</v>
       </c>
     </row>
     <row r="71">
@@ -1795,13 +1795,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>17.33333333333333</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>34.33333333333333</v>
       </c>
     </row>
     <row r="73">
@@ -1814,13 +1814,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>17.33333333333333</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>33.83333333333333</v>
       </c>
     </row>
     <row r="74">
@@ -1852,13 +1852,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>16.25</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>16.75</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76">
@@ -1871,13 +1871,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>18.66666666666667</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>17.31944444444444</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>35.98611111111111</v>
       </c>
     </row>
     <row r="77">
@@ -1890,13 +1890,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>17.19444444444444</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>28.19444444444444</v>
       </c>
     </row>
     <row r="78">
@@ -1909,13 +1909,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>10.33333333333333</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>17.33333333333333</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>27.66666666666666</v>
       </c>
     </row>
     <row r="79">
@@ -1966,13 +1966,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>12.6</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>16.94444444444444</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>29.54444444444444</v>
       </c>
     </row>
     <row r="82">
@@ -1985,13 +1985,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>12.2</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>16.75</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>28.95</v>
       </c>
     </row>
     <row r="83">
@@ -2004,13 +2004,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>17.22222222222222</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>33.22222222222222</v>
       </c>
     </row>
     <row r="84">
@@ -2023,13 +2023,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>12.25</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>16.94444444444444</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>29.19444444444444</v>
       </c>
     </row>
     <row r="85">
@@ -2042,13 +2042,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>14.33333333333333</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>17.33333333333333</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>31.66666666666666</v>
       </c>
     </row>
     <row r="86">
@@ -2061,13 +2061,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>16.33333333333333</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>17.26388888888889</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>33.59722222222222</v>
       </c>
     </row>
     <row r="87">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>13.8</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>17.63888888888889</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>31.43888888888889</v>
       </c>
     </row>
     <row r="88">
@@ -2099,13 +2099,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>16.4</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>17.63888888888889</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>34.03888888888889</v>
       </c>
     </row>
     <row r="89">
@@ -2118,13 +2118,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>17.31944444444444</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>37.31944444444444</v>
       </c>
     </row>
     <row r="90">
@@ -2137,13 +2137,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>17.08333333333333</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>32.58333333333333</v>
       </c>
     </row>
     <row r="91">
@@ -2156,13 +2156,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>17.19444444444444</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>31.19444444444444</v>
       </c>
     </row>
     <row r="92">
@@ -2175,13 +2175,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>17.26388888888889</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>35.26388888888889</v>
       </c>
     </row>
     <row r="93">
@@ -2194,13 +2194,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>17.06944444444444</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>35.56944444444444</v>
       </c>
     </row>
     <row r="94">
@@ -2213,13 +2213,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>17.18055555555556</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>28.68055555555556</v>
       </c>
     </row>
     <row r="95">
@@ -2232,13 +2232,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>17.31944444444444</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>35.31944444444444</v>
       </c>
     </row>
     <row r="96">
@@ -2251,13 +2251,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>17.08333333333333</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>31.08333333333333</v>
       </c>
     </row>
     <row r="97">
@@ -2270,13 +2270,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>18.25</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>17.01388888888889</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>35.26388888888889</v>
       </c>
     </row>
     <row r="98">
@@ -2289,13 +2289,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>17.31944444444444</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>37.31944444444444</v>
       </c>
     </row>
   </sheetData>
